--- a/docs/DBDiagrams/LogicDiagrams/Logic Diagrams.xlsx
+++ b/docs/DBDiagrams/LogicDiagrams/Logic Diagrams.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>GAME</t>
   </si>
@@ -52,10 +52,7 @@
     <t>PLAYERS</t>
   </si>
   <si>
-    <t>PLAYERSTATSTICTACTOE</t>
-  </si>
-  <si>
-    <t>PLAYERSTATSHANGMAN</t>
+    <t>PLAYERSTATS</t>
   </si>
   <si>
     <t>playerid</t>
@@ -64,22 +61,19 @@
     <t>name</t>
   </si>
   <si>
-    <t>tttwins</t>
-  </si>
-  <si>
-    <t>hgwins</t>
-  </si>
-  <si>
     <t>gamesplayed</t>
   </si>
   <si>
-    <t>tttlosses</t>
+    <t>win</t>
   </si>
   <si>
-    <t>hglosses</t>
+    <t>Boolean</t>
   </si>
   <si>
-    <t>tttties</t>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>tie</t>
   </si>
   <si>
     <t>TICTACTOE</t>
@@ -97,25 +91,22 @@
     <t>idturnttt</t>
   </si>
   <si>
-    <t>finished</t>
+    <t>playerxid</t>
   </si>
   <si>
-    <t>Boolean</t>
+    <t>finished</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>playerxid</t>
+    <t>playeroid</t>
   </si>
   <si>
     <t>winner</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>playeroid</t>
   </si>
   <si>
     <t>type</t>
@@ -142,19 +133,19 @@
     <t>originalWord</t>
   </si>
   <si>
+    <t>guesserid</t>
+  </si>
+  <si>
     <t>guessingLetter</t>
   </si>
   <si>
     <t>guessedletters</t>
   </si>
   <si>
-    <t>guesserid</t>
+    <t>giverid</t>
   </si>
   <si>
     <t>hint</t>
-  </si>
-  <si>
-    <t>giverid</t>
   </si>
   <si>
     <t>remainingAttempts</t>
@@ -292,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,13 +304,16 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -544,6 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -891,12 +886,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
+      <c r="L11" s="8"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -937,18 +927,10 @@
         <v>5</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -964,7 +946,7 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
@@ -975,7 +957,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>7</v>
@@ -985,16 +967,10 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1010,7 +986,7 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
@@ -1021,7 +997,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>7</v>
@@ -1033,18 +1009,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1059,44 +1027,36 @@
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="b">
+      <c r="D15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <v>0.0</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="6">
-        <v>0.0</v>
+      <c r="J15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1111,28 +1071,28 @@
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="1"/>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="6">
-        <v>0.0</v>
+      <c r="J16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1147,11 +1107,23 @@
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="b">
+        <v>0</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1272,21 +1244,21 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1369,7 +1341,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>7</v>
@@ -1380,7 +1352,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="1"/>
       <c r="L24" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>7</v>
@@ -1404,7 +1376,7 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
@@ -1415,7 +1387,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>7</v>
@@ -1426,7 +1398,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="1"/>
       <c r="L25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>7</v>
@@ -1450,7 +1422,7 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
@@ -1461,10 +1433,10 @@
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="6" t="b">
         <v>0</v>
@@ -1474,7 +1446,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>7</v>
@@ -1497,19 +1469,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
-        <v>31</v>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6" t="b">
+      <c r="D27" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1"/>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>7</v>
@@ -1520,7 +1492,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
       <c r="L27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>7</v>
@@ -1543,16 +1515,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1560,7 +1526,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>9</v>
@@ -1583,10 +1549,6 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1611,10 +1573,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1724,28 +1686,28 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
       <c r="K34" s="1"/>
       <c r="L34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1831,7 +1793,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="1"/>
       <c r="G36" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>7</v>
@@ -1842,7 +1804,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
       <c r="L36" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>7</v>
@@ -1853,7 +1815,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R36" s="6" t="s">
         <v>7</v>
@@ -1872,7 +1834,7 @@
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>7</v>
@@ -1882,30 +1844,30 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="11" t="s">
-        <v>41</v>
+      <c r="G37" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="12" t="b">
+      <c r="I37" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="11" t="s">
-        <v>41</v>
+      <c r="L37" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N37" s="12" t="b">
+      <c r="N37" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="O37" s="12"/>
+      <c r="O37" s="13"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>9</v>
@@ -1924,7 +1886,7 @@
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
@@ -1934,21 +1896,21 @@
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="13" t="s">
-        <v>28</v>
+      <c r="G38" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>29</v>
+      <c r="H38" s="15" t="s">
+        <v>18</v>
       </c>
-      <c r="I38" s="14" t="b">
+      <c r="I38" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="14" t="b">
+      <c r="J38" s="15" t="b">
         <v>0</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>9</v>
@@ -1959,7 +1921,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R38" s="6" t="s">
         <v>9</v>
@@ -1977,33 +1939,33 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="6" t="s">
-        <v>45</v>
+      <c r="B39" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="6" t="b">
+      <c r="D39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="13" t="s">
-        <v>32</v>
+      <c r="G39" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="14" t="b">
+      <c r="I39" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="1"/>
       <c r="L39" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N39" s="6" t="b">
         <v>0</v>
@@ -2025,16 +1987,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2042,7 +1998,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>7</v>
@@ -2067,10 +2023,6 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -28891,19 +28843,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="Q34:T34"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>